--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value686.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value686.xlsx
@@ -354,7 +354,7 @@
         <v>2.937437420720049</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.4935952104185062</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value686.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value686.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.801730508302423</v>
+        <v>1.418769836425781</v>
       </c>
       <c r="B1">
-        <v>2.937437420720049</v>
+        <v>1.575741171836853</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.589781999588013</v>
       </c>
       <c r="D1">
-        <v>0.4935952104185062</v>
+        <v>2.021628618240356</v>
       </c>
       <c r="E1">
-        <v>0.2934656902512806</v>
+        <v>3.142244815826416</v>
       </c>
     </row>
   </sheetData>
